--- a/Schablonen/Polyp.xlsx
+++ b/Schablonen/Polyp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B48D4-74B5-4498-B2AD-A9CF76941868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4CEA1-3213-4760-A550-2D5D75E6182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6420" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Textbausteine befundeingabestru" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Der Polyp befindet sich im terminalen Ileum. \n</t>
   </si>
   <si>
-    <t>\nPolyp:\n</t>
-  </si>
-  <si>
     <t>Der Polyp befindet sich im Rektum [bei %G2% cm]. \n</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>Lokalisation</t>
+  </si>
+  <si>
+    <t>Polyp:\n</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1068,10 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:W217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R14:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1170,18 +1170,18 @@
         <v>22</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1195,7 +1195,7 @@
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1203,7 +1203,7 @@
       <c r="B5"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1232,10 +1232,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1252,7 +1252,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="2"/>
     </row>
@@ -1267,12 +1267,12 @@
         <v>36</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1286,7 +1286,7 @@
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1305,15 +1305,15 @@
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>36</v>
@@ -1324,7 +1324,7 @@
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1362,7 +1362,7 @@
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1382,10 +1382,10 @@
         <v>42</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1405,18 +1405,18 @@
         <v>42</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>36</v>
@@ -1427,15 +1427,15 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>36</v>
@@ -1446,7 +1446,7 @@
       <c r="O16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1454,18 +1454,18 @@
         <v>22</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
@@ -1477,10 +1477,10 @@
         <v>42</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1488,22 +1488,22 @@
         <v>29</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>37</v>
@@ -1515,10 +1515,10 @@
         <v>42</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1526,13 +1526,13 @@
         <v>44</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R21" s="3"/>
     </row>
@@ -1541,22 +1541,22 @@
         <v>45</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>37</v>
@@ -1568,10 +1568,10 @@
         <v>42</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1579,120 +1579,120 @@
         <v>47</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1700,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -1710,10 +1710,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
@@ -1723,237 +1723,237 @@
       </c>
       <c r="L33" s="2"/>
       <c r="R33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L34" s="2"/>
       <c r="R34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M35" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>171</v>
+      </c>
+      <c r="R35" t="s">
         <v>180</v>
-      </c>
-      <c r="M35" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>172</v>
-      </c>
-      <c r="R35" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D41" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1961,437 +1961,437 @@
         <v>22</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="R54" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D58" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D59" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="R60" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="R61" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="R62" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N63" s="3"/>
       <c r="Q63" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N64" s="3"/>
       <c r="Q64" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="R65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D66" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="R66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="R67" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D68" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="R68" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D69" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="R69" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D71" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="R72" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
